--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>377530</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合A</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>001261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>中融新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001261</t>
+          <t>004352</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融新机遇灵活配置混合</t>
+          <t>北信瑞丰研究精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004352</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北信瑞丰研究精选股票</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>377240</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>上投摩根新兴动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>53.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960007</t>
+          <t>010610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根新兴动力混合H</t>
+          <t>上投摩根远见两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>56.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>006128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>银河和美生活主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006128</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河和美生活主题混合</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>960007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>上投摩根新兴动力混合H</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>377240</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根新兴动力混合A</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>377530</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010610</t>
+          <t>001261</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根远见两年持有期混合</t>
+          <t>中融新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001261</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融新机遇灵活配置混合</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,1988 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3411</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7909</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7770</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3207,7 +3208,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>78.89</t>
@@ -3295,6 +3295,7384 @@
       </c>
       <c r="H52" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2195</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1908</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0560</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3992</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3261</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3164</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2691</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2528</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2143</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2121</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0178</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9830</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9151</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8151</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7790</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7191</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7050</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6990</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6884</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6278</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6223</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5819</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5256</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4931</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10657,7 +10658,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -10673,6 +10673,106 @@
       </c>
       <c r="H194" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.65000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10686,7 +10687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10697,17 +10698,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10717,14 +10738,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>193</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96.65000000000001</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10733,14 +10776,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.4</v>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10749,14 +10814,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.74</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10765,13 +10852,3292 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2691</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0471</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9588</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8400</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8326</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5726</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005121</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国兴利增强债券</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>193</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.65000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14036,7 +14037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14047,17 +14048,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14067,14 +14088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.98</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -14083,14 +14126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>193</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96.65000000000001</v>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14099,14 +14164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.4</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -14115,14 +14202,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.74</v>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -14131,13 +14240,3887 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5978</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2624</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1457</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0790</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6686</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>193</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.65000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18003,7 +18004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18014,17 +18015,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18034,14 +18055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>103</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.33</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18050,14 +18093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.98</v>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -18066,14 +18131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>193</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.65000000000001</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -18082,14 +18169,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.4</v>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -18098,14 +18207,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.74</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -18114,13 +18245,7089 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5949</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4076</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1722</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9914</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8732</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8113</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6990</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6282</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6128</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5444</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013371</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013372</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>188</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>193</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.65000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="D2" t="n">
-        <v>55.54</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
-        <v>42.33</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>44.98</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
-        <v>96.65000000000001</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D6" t="n">
-        <v>22.4</v>
+        <v>96.65000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>4.74</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -600,6 +617,4234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1221</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6914</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6817</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012901</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012900</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7789,7 +12034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11755,7 +16000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15104,7 +19349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22481,7 +26726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24464,7 +28709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24938,7 +29183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
+++ b/数据整理/stocks/A股/创业板/300390-天华超净.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>32.66</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n">
-        <v>55.54</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
-        <v>42.33</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>44.98</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>96.65000000000001</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D7" t="n">
-        <v>22.4</v>
+        <v>96.65000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>4.74</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -616,7 +633,2399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5230</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014588</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014587</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4844,7 +7253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12034,7 +14443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16000,7 +18409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19349,7 +21758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26726,7 +29135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28709,7 +31118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29181,402 +31590,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2502</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2502</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004352</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>北信瑞丰研究精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002588</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004416</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>